--- a/ebs_with_tracing/forms/app/symptomatic_contact_follow_up.xlsx
+++ b/ebs_with_tracing/forms/app/symptomatic_contact_follow_up.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\GitHub\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>type</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>Ce champs est obligatoire</t>
   </si>
   <si>
     <t>Follow-up after symptomatic patient</t>
@@ -828,33 +825,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.08203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="39" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="68.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.08203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="68.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.58203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.5" style="1" customWidth="1"/>
     <col min="17" max="27" width="10.5" style="1" customWidth="1"/>
     <col min="28" max="1015" width="10.5" customWidth="1"/>
-    <col min="1016" max="1023" width="8.375" customWidth="1"/>
+    <col min="1016" max="1023" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -909,7 +906,7 @@
       </c>
       <c r="AMH1"/>
     </row>
-    <row r="2" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -939,7 +936,7 @@
       </c>
       <c r="AMH2"/>
     </row>
-    <row r="3" spans="1:1022" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1022" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -959,7 +956,7 @@
       <c r="N3" s="8"/>
       <c r="AMH3"/>
     </row>
-    <row r="4" spans="1:1022" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1022" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -985,7 +982,7 @@
       <c r="P4" s="9"/>
       <c r="AMH4"/>
     </row>
-    <row r="5" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1008,7 +1005,7 @@
       <c r="N5" s="6"/>
       <c r="AMH5"/>
     </row>
-    <row r="6" spans="1:1022" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1022" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1026,7 @@
       <c r="P6" s="14"/>
       <c r="AMH6"/>
     </row>
-    <row r="7" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1049,7 @@
       <c r="N7" s="6"/>
       <c r="AMH7"/>
     </row>
-    <row r="8" spans="1:1022" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1022" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:1022" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1022" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1093,7 +1090,7 @@
       <c r="P9" s="9"/>
       <c r="AMH9"/>
     </row>
-    <row r="10" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1116,7 @@
       <c r="P10" s="9"/>
       <c r="AMH10"/>
     </row>
-    <row r="11" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1145,7 +1142,7 @@
       <c r="P11" s="9"/>
       <c r="AMH11"/>
     </row>
-    <row r="12" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1169,7 +1166,7 @@
       <c r="P12" s="9"/>
       <c r="AMH12"/>
     </row>
-    <row r="13" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1185,7 @@
       <c r="N13" s="6"/>
       <c r="AMH13"/>
     </row>
-    <row r="14" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1022" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1204,7 @@
       <c r="N14" s="6"/>
       <c r="AMH14"/>
     </row>
-    <row r="15" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>41</v>
       </c>
@@ -1223,9 +1220,7 @@
       <c r="E15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>67</v>
-      </c>
+      <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1241,7 +1236,7 @@
       </c>
       <c r="AMH15"/>
     </row>
-    <row r="16" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
         <v>17</v>
       </c>
@@ -1249,7 +1244,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1279,7 +1274,7 @@
       <c r="Y16" s="21"/>
       <c r="AMH16"/>
     </row>
-    <row r="17" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>48</v>
       </c>
@@ -1303,7 +1298,7 @@
       </c>
       <c r="AMH17"/>
     </row>
-    <row r="18" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1022" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>30</v>
       </c>
@@ -1328,16 +1323,16 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="76.125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="76.08203125" style="25" customWidth="1"/>
     <col min="4" max="1021" width="10.5" customWidth="1"/>
-    <col min="1022" max="1024" width="8.375" customWidth="1"/>
+    <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="28" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>54</v>
       </c>
@@ -1348,7 +1343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
@@ -1359,7 +1354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>55</v>
       </c>
@@ -1370,13 +1365,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
     </row>
   </sheetData>
@@ -1389,22 +1384,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="121.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="32.08203125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" style="26" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="26" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="28" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
@@ -1424,16 +1419,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="22" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-08-19 22-20</v>
+        <v>2020-11-23 12-59</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>65</v>
